--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2366829.024791213</v>
+        <v>-2368826.697804059</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.41307671137059</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>44.94101498269113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>127.0044127072327</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>234.4970761400737</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>216.3273452660812</v>
       </c>
       <c r="X5" t="n">
-        <v>174.5986077078408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>233.4543067672734</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>65.51651982872603</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>25.71396007345139</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>369.798308131636</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>99.66075074687578</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>230.2634979541059</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185879</v>
+        <v>207.6951870029948</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.3514698018592</v>
+        <v>103.572877713736</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1938,10 +1938,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>62.74236544294489</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>47.27820527287669</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>161.8175117958961</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329142</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539629</v>
       </c>
       <c r="T25" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329102</v>
       </c>
       <c r="G28" t="n">
         <v>98.36167833373693</v>
@@ -2731,7 +2731,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463175</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689365</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463111</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539622</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689372</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463131</v>
@@ -3709,13 +3709,13 @@
         <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689375</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539631</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468.3004633897571</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C2" t="n">
-        <v>99.3379464493454</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="D2" t="n">
-        <v>99.3379464493454</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E2" t="n">
-        <v>99.3379464493454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>99.3379464493454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>99.3379464493454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1245.039635429691</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>854.9003034538789</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,34 +4492,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.668658535239</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4841,13 +4841,13 @@
         <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2108.906329475425</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1735.440571214345</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="9">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,16 +5118,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
         <v>1171.725741678162</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954967</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,64 +5264,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141293</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>1841.189502980822</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2361.490124716569</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
         <v>2612.943493278838</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954972</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,7 +5580,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
@@ -5589,22 +5589,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341679</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141298</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678163</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
         <v>1797.533454227377</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488393</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X19" t="n">
-        <v>318.009670603816</v>
+        <v>326.6213191924212</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,7 +5817,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
@@ -5826,22 +5826,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341679</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141298</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678163</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
         <v>1797.533454227377</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247869</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U22" t="n">
-        <v>800.6837097077201</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V22" t="n">
-        <v>545.9992215018333</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X22" t="n">
-        <v>318.009670603816</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,10 +6002,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141295</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N24" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C25" t="n">
-        <v>559.344147222968</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F25" t="n">
         <v>320.8847398504512</v>
@@ -6142,19 +6142,19 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M25" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N25" t="n">
         <v>1386.860941116388</v>
@@ -6172,10 +6172,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S25" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T25" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
         <v>1489.892037025263</v>
@@ -6184,13 +6184,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N27" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1841.189502980821</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6370,16 +6370,16 @@
         <v>398.9545963083209</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982977</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.274692278279</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716569</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,16 +6616,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6689,22 +6689,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6777,16 +6777,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
         <v>1171.725741678162</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6914,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,19 +7014,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
         <v>1797.533454227377</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
         <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,25 +7160,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
         <v>1171.725741678162</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,10 +7327,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7339,43 +7339,43 @@
         <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,19 +7488,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010315</v>
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,19 +7725,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1517.99338900868</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
         <v>1797.533454227377</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.9802687929755</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="O18" t="n">
-        <v>349.765300333855</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="O21" t="n">
-        <v>349.765300333855</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338556</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970637</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>274.3657496970643</v>
+        <v>274.3657496970637</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>188.8856946302409</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929755</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10674,10 +10674,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7653003338571</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11148,10 +11148,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="O42" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11385,10 +11385,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>257.2699649093124</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>285.335554845987</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>278.981757781666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>44.28663650577781</v>
+        <v>17.64056718375429</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871784</v>
+        <v>18.01446838604235</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.358185587178</v>
+        <v>122.1367776753012</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>189.3952778808831</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>171.3064480792181</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>7.280234771565489</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>124.4198406026812</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-6.841194405425973e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,19 +26375,19 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371265</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="J4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275958</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="O4" t="n">
-        <v>37464.45686275958</v>
-      </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26503,7 +26503,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-780878.5005874787</v>
+        <v>-781091.9125773575</v>
       </c>
       <c r="C6" t="n">
         <v>-239634.0363146321</v>
@@ -26528,22 +26528,22 @@
         <v>-239634.0363146321</v>
       </c>
       <c r="E6" t="n">
-        <v>-632193.0320470518</v>
+        <v>-632290.4911730241</v>
       </c>
       <c r="F6" t="n">
-        <v>-107032.9955701559</v>
+        <v>-107130.4546961279</v>
       </c>
       <c r="G6" t="n">
-        <v>-107032.9955701557</v>
+        <v>-107130.4546961279</v>
       </c>
       <c r="H6" t="n">
-        <v>-107032.9955701557</v>
+        <v>-107130.4546961279</v>
       </c>
       <c r="I6" t="n">
         <v>-189685.0747864975</v>
       </c>
       <c r="J6" t="n">
-        <v>-311602.7818753778</v>
+        <v>-311602.7818753779</v>
       </c>
       <c r="K6" t="n">
         <v>-135179.562682785</v>
@@ -26555,13 +26555,13 @@
         <v>-269980.5779166221</v>
       </c>
       <c r="N6" t="n">
-        <v>-189685.0747864976</v>
+        <v>-189685.0747864975</v>
       </c>
       <c r="O6" t="n">
         <v>-135179.562682785</v>
       </c>
       <c r="P6" t="n">
-        <v>-135179.562682785</v>
+        <v>-135179.5626827849</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26704,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J2" t="n">
         <v>68.13189012964067</v>
@@ -26713,19 +26713,19 @@
         <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964069</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541008</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541008</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26799,16 +26799,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26923,14 +26923,14 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="J2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>2.842170943040401e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>121.5404908957244</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>85.14112624278616</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>207.8510068180502</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>132.9136234513319</v>
       </c>
       <c r="X5" t="n">
-        <v>195.1324929706282</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>52.82756747470432</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0681335233688</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>323.5270086439616</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>16.43963052441762</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>46.77321189969339</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>21.87414536972213</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="26">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32719,13 +32719,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32740,7 +32740,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,10 +32856,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32868,10 +32868,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32880,7 +32880,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,13 +32892,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,13 +35495,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35510,7 +35510,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>253.9933015780496</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490677</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879394</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980132</v>
+        <v>682.9598737318699</v>
       </c>
       <c r="O18" t="n">
-        <v>632.1290025749635</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686871</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303326</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490677</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879394</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980132</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O21" t="n">
-        <v>632.1290025749635</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686871</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36367,19 +36367,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879393</v>
@@ -36446,19 +36446,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749639</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>481.4591646285885</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L25" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N25" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
         <v>304.3692416502436</v>
@@ -36534,7 +36534,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>481.459164628589</v>
+        <v>481.4591646285885</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>471.2493968713491</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780496</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,13 +37154,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,13 +37391,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,13 +37628,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>632.1290025749652</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,13 +37865,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O42" t="n">
-        <v>632.1290025749652</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,13 +37950,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,13 +38102,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>682.9598737318699</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
